--- a/medicine/Pharmacie/Classe_ATC_A01/Classe_ATC_A01.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_A01/Classe_ATC_A01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A01, dénommée « Préparations stomatologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A01, dénommée « Préparations stomatologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,15 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A01AA Agents prophylactiques des caries
-A01AA01 Fluorure de sodium
+          <t>A01AA Agents prophylactiques des caries</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A01AA01 Fluorure de sodium
 A01AA02 Monofluorophosphate de sodium
 A01AA03 Olaflur
 A01AA04 Fluorure stanneux
 A01AA30 Associations
-A01AA51 Fluorure de sodium, associations
-A01AB Anti-infectieux et antiseptiques pour un traitement local oral
-A01AB02 Peroxyde d'hydrogène (eau oxygénée)
+A01AA51 Fluorure de sodium, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A01A Préparations utilisées en stomatologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A01AB Anti-infectieux et antiseptiques pour un traitement local oral</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A01AB02 Peroxyde d'hydrogène (eau oxygénée)
 A01AB03 Chlorhexidine
 A01AB04 Amphotéricine B
 A01AB05 Polynoxylin
@@ -541,14 +592,82 @@
 A01AB19 Perborate de sodium (borax)
 A01AB21 Chlortétracycline
 A01AB22 Doxycycline
-A01AB23 Minocycline
-A01AC Corticostéroïdes pour un traitement local oral
-A01AC01 Triamcinolone
+A01AB23 Minocycline</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A01A Préparations utilisées en stomatologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A01AC Corticostéroïdes pour un traitement local oral</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A01AC01 Triamcinolone
 A01AC02 Dexaméthasone
 A01AC03 Hydrocortisone
-A01AC54 Prednisolone, associations
-A01AD Autres agents pour un traitement local oral
-A01AD01 Épinéphrine (adrénaline)
+A01AC54 Prednisolone, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A01A Préparations utilisées en stomatologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A01AD Autres agents pour un traitement local oral</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A01AD01 Épinéphrine (adrénaline)
 A01AD02 Benzydamine
 A01AD05 Acide acétylsalicylique
 A01AD06 Adrénalone
